--- a/biology/Histoire de la zoologie et de la botanique/Amédée_Louis_Michel_Lepeletier/Amédée_Louis_Michel_Lepeletier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Amédée_Louis_Michel_Lepeletier/Amédée_Louis_Michel_Lepeletier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Am%C3%A9d%C3%A9e_Louis_Michel_Lepeletier</t>
+          <t>Amédée_Louis_Michel_Lepeletier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amédée Louis Michel Lepeletier, comte de Saint-Fargeau, né le 9 octobre 1770 à Paris et mort le 23 août 1845 à Saint-Germain-en-Laye, est un entomologiste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Am%C3%A9d%C3%A9e_Louis_Michel_Lepeletier</t>
+          <t>Amédée_Louis_Michel_Lepeletier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du baron de Péreuse, premier président du Parlement de Paris. Son frère aîné, Louis-Michel Lepeletier fait partie des États généraux, passe des rangs de la noblesse à ceux du Tiers-État et, après avoir voté la mort du roi, meurt assassiné. Son autre frère, Félix, s'engage en politique, à la suite de cet événement. Mais Amédée ne suit pas cet exemple et préfère se consacrer entièrement à l’entomologie.
 Il est l’auteur de l’Histoire naturelle des insectes hyménoptères qui paraît dans les Suites à Buffon dont le quatrième et dernier tome sera achevé par Gaspard Auguste Brullé. Il s’agit de la première étude générale de cet ordre et compte 2 500 pages. Avec Jean Guillaume Audinet-Serville, il signe les articles consacrés aux insectes dans l’Encyclopédie méthodique.
-Membre fondateur de la Société entomologique de France, la plus ancienne de son genre au monde, il en est archiviste en 1832 et le président l’année suivante, succédant à Audinet-Serville. Il est membre également de diverses sociétés savantes, dont l’Académie de Dijon, la Société d'histoire naturelle de Paris, la Société d’histoire naturelle de Moscou, la Société d'histoire naturelle de Versailles[1].
+Membre fondateur de la Société entomologique de France, la plus ancienne de son genre au monde, il en est archiviste en 1832 et le président l’année suivante, succédant à Audinet-Serville. Il est membre également de diverses sociétés savantes, dont l’Académie de Dijon, la Société d'histoire naturelle de Paris, la Société d’histoire naturelle de Moscou, la Société d'histoire naturelle de Versailles.
 </t>
         </is>
       </c>
